--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121011a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121011a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0.534262594278304</v>
+      </c>
+      <c r="C5">
+        <v>0.5498682584778597</v>
+      </c>
+      <c r="D5">
+        <v>0.5675673866204244</v>
+      </c>
+      <c r="E5">
+        <v>0.753451613881669</v>
+      </c>
+      <c r="F5">
+        <v>0.8484517049907566</v>
+      </c>
+      <c r="G5">
+        <v>1.502131312578604</v>
+      </c>
+      <c r="H5">
+        <v>0.9082101689027973</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.534262594278304</v>
+        <v>2.751838215691569</v>
       </c>
       <c r="C6">
-        <v>0.5498682584778597</v>
+        <v>2.741197729455479</v>
       </c>
       <c r="D6">
-        <v>0.5675673866204244</v>
+        <v>2.805993606919535</v>
       </c>
       <c r="E6">
-        <v>0.753451613881669</v>
+        <v>3.747832544635708</v>
       </c>
       <c r="F6">
-        <v>0.8484517049907566</v>
+        <v>3.014092676439132</v>
       </c>
       <c r="G6">
-        <v>1.502131312578604</v>
+        <v>5.365628284273729</v>
       </c>
       <c r="H6">
-        <v>0.9082101689027973</v>
+        <v>3.093850149904964</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.751838215691569</v>
+        <v>0.3369099405759431</v>
       </c>
       <c r="C7">
-        <v>2.741197729455479</v>
+        <v>0.5322885854808685</v>
       </c>
       <c r="D7">
-        <v>2.805993606919535</v>
+        <v>0.5411234533697382</v>
       </c>
       <c r="E7">
-        <v>3.747832544635708</v>
+        <v>1.810160706435832</v>
       </c>
       <c r="F7">
-        <v>3.014092676439132</v>
+        <v>0.7677505996642452</v>
       </c>
       <c r="G7">
-        <v>5.365628284273729</v>
+        <v>4.812924314978074</v>
       </c>
       <c r="H7">
-        <v>3.093850149904964</v>
+        <v>0.8491585562984033</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0.9351365465975515</v>
+      </c>
+      <c r="C8">
+        <v>1.791748503065044</v>
+      </c>
+      <c r="D8">
+        <v>1.44137962299015</v>
+      </c>
+      <c r="E8">
+        <v>3.005381047906479</v>
+      </c>
+      <c r="F8">
+        <v>1.549051292764079</v>
+      </c>
+      <c r="G8">
+        <v>6.853119222111395</v>
+      </c>
+      <c r="H8">
+        <v>1.665942330975152</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.3369099405759431</v>
+        <v>1.073967531882544</v>
       </c>
       <c r="C9">
-        <v>0.5322885854808685</v>
+        <v>1.84554420079262</v>
       </c>
       <c r="D9">
-        <v>0.5411234533697382</v>
+        <v>2.229851230191528</v>
       </c>
       <c r="E9">
-        <v>1.810160706435832</v>
+        <v>5.870507486037582</v>
       </c>
       <c r="F9">
-        <v>0.7677505996642452</v>
+        <v>1.773573637706752</v>
       </c>
       <c r="G9">
-        <v>4.812924314978074</v>
+        <v>10.94022214554363</v>
       </c>
       <c r="H9">
-        <v>0.8491585562984033</v>
+        <v>1.915956755331796</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.9351365465975515</v>
+        <v>0.7513350880523262</v>
       </c>
       <c r="C10">
-        <v>1.791748503065044</v>
+        <v>1.279229011142944</v>
       </c>
       <c r="D10">
-        <v>1.44137962299015</v>
+        <v>1.295014180769002</v>
       </c>
       <c r="E10">
-        <v>3.005381047906479</v>
+        <v>5.317390391153856</v>
       </c>
       <c r="F10">
-        <v>1.549051292764079</v>
+        <v>1.63156963473219</v>
       </c>
       <c r="G10">
-        <v>6.853119222111395</v>
+        <v>17.00207232993687</v>
       </c>
       <c r="H10">
-        <v>1.665942330975152</v>
+        <v>1.566549400415281</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>1.073967531882544</v>
+        <v>1.357576727239848</v>
       </c>
       <c r="C11">
-        <v>1.84554420079262</v>
+        <v>2.326597868099138</v>
       </c>
       <c r="D11">
-        <v>2.229851230191528</v>
+        <v>2.169589117540381</v>
       </c>
       <c r="E11">
-        <v>5.870507486037582</v>
+        <v>8.31471933992383</v>
       </c>
       <c r="F11">
-        <v>1.773573637706752</v>
+        <v>2.927810025974715</v>
       </c>
       <c r="G11">
-        <v>10.94022214554363</v>
+        <v>15.58339030366683</v>
       </c>
       <c r="H11">
-        <v>1.915956755331796</v>
+        <v>3.305943096568829</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.7513350880523262</v>
+        <v>0.5448211140824936</v>
       </c>
       <c r="C12">
-        <v>1.279229011142944</v>
+        <v>0.7804949195804689</v>
       </c>
       <c r="D12">
-        <v>1.295014180769002</v>
+        <v>0.8312529145134354</v>
       </c>
       <c r="E12">
-        <v>5.317390391153856</v>
+        <v>2.765603063771331</v>
       </c>
       <c r="F12">
-        <v>1.63156963473219</v>
+        <v>1.251492284482182</v>
       </c>
       <c r="G12">
-        <v>17.00207232993687</v>
+        <v>7.954881794424411</v>
       </c>
       <c r="H12">
-        <v>1.566549400415281</v>
+        <v>1.441026791558972</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>1.357576727239848</v>
+        <v>0.9940162384637229</v>
       </c>
       <c r="C13">
-        <v>2.326597868099138</v>
+        <v>2.237097111227417</v>
       </c>
       <c r="D13">
-        <v>2.169589117540381</v>
+        <v>2.29888814956081</v>
       </c>
       <c r="E13">
-        <v>8.31471933992383</v>
+        <v>8.584387097858851</v>
       </c>
       <c r="F13">
-        <v>2.927810025974715</v>
+        <v>3.009641760106456</v>
       </c>
       <c r="G13">
-        <v>15.58339030366683</v>
+        <v>20.14224217964248</v>
       </c>
       <c r="H13">
-        <v>3.305943096568829</v>
+        <v>3.19828917541349</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.5448211140824936</v>
+        <v>0.7166596656966214</v>
       </c>
       <c r="C14">
-        <v>0.7804949195804689</v>
+        <v>1.308152876228932</v>
       </c>
       <c r="D14">
-        <v>0.8312529145134354</v>
+        <v>1.034577416032437</v>
       </c>
       <c r="E14">
-        <v>2.765603063771331</v>
+        <v>5.066020307705656</v>
       </c>
       <c r="F14">
-        <v>1.251492284482182</v>
+        <v>2.061834709096618</v>
       </c>
       <c r="G14">
-        <v>7.954881794424411</v>
+        <v>11.7894827001317</v>
       </c>
       <c r="H14">
-        <v>1.441026791558972</v>
+        <v>2.36492305620825</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.9940162384637229</v>
+        <v>0.2203618695806053</v>
       </c>
       <c r="C15">
-        <v>2.237097111227417</v>
+        <v>0.3435965976308802</v>
       </c>
       <c r="D15">
-        <v>2.29888814956081</v>
+        <v>0.3816684976715192</v>
       </c>
       <c r="E15">
-        <v>8.584387097858851</v>
+        <v>1.657351862734701</v>
       </c>
       <c r="F15">
-        <v>3.009641760106456</v>
+        <v>0.7167981412627915</v>
       </c>
       <c r="G15">
-        <v>20.14224217964248</v>
+        <v>2.68971987277678</v>
       </c>
       <c r="H15">
-        <v>3.19828917541349</v>
+        <v>0.7828732153786268</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.7166596656966214</v>
+        <v>1.168506920286042</v>
       </c>
       <c r="C16">
-        <v>1.308152876228932</v>
+        <v>1.089585534356325</v>
       </c>
       <c r="D16">
-        <v>1.034577416032437</v>
+        <v>2.180150608914175</v>
       </c>
       <c r="E16">
-        <v>5.066020307705656</v>
+        <v>7.852658881927842</v>
       </c>
       <c r="F16">
-        <v>2.061834709096618</v>
+        <v>3.150842273186999</v>
       </c>
       <c r="G16">
-        <v>11.7894827001317</v>
+        <v>14.27684083612619</v>
       </c>
       <c r="H16">
-        <v>2.36492305620825</v>
+        <v>3.422640551870794</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.2203618695806053</v>
+        <v>0.7251601075213323</v>
       </c>
       <c r="C17">
-        <v>0.3435965976308802</v>
+        <v>1.498402191322018</v>
       </c>
       <c r="D17">
-        <v>0.3816684976715192</v>
+        <v>1.648715552409051</v>
       </c>
       <c r="E17">
-        <v>1.657351862734701</v>
+        <v>9.105518030031424</v>
       </c>
       <c r="F17">
-        <v>0.7167981412627915</v>
+        <v>2.635206113212888</v>
       </c>
       <c r="G17">
-        <v>2.68971987277678</v>
+        <v>20.44028861544959</v>
       </c>
       <c r="H17">
-        <v>0.7828732153786268</v>
+        <v>2.511597142390421</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>1.168506920286042</v>
+        <v>0.3532509182446637</v>
       </c>
       <c r="C18">
-        <v>1.089585534356325</v>
+        <v>0.8122317615592294</v>
       </c>
       <c r="D18">
-        <v>2.180150608914175</v>
+        <v>0.6968809799938412</v>
       </c>
       <c r="E18">
-        <v>7.852658881927842</v>
+        <v>3.12101708226277</v>
       </c>
       <c r="F18">
-        <v>3.150842273186999</v>
+        <v>1.436966414523825</v>
       </c>
       <c r="G18">
-        <v>14.27684083612619</v>
+        <v>8.921723865289602</v>
       </c>
       <c r="H18">
-        <v>3.422640551870794</v>
+        <v>1.646835679031199</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.7251601075213323</v>
+        <v>0.5562571276083321</v>
       </c>
       <c r="C19">
-        <v>1.498402191322018</v>
+        <v>0.7955819986619647</v>
       </c>
       <c r="D19">
-        <v>1.648715552409051</v>
+        <v>1.170288906944176</v>
       </c>
       <c r="E19">
-        <v>9.105518030031424</v>
+        <v>3.480995451094154</v>
       </c>
       <c r="F19">
-        <v>2.635206113212888</v>
+        <v>1.531514873988751</v>
       </c>
       <c r="G19">
-        <v>20.44028861544959</v>
+        <v>8.492699167963236</v>
       </c>
       <c r="H19">
-        <v>2.511597142390421</v>
+        <v>1.636778340600487</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.3532509182446637</v>
+        <v>0.7462352930383374</v>
       </c>
       <c r="C20">
-        <v>0.8122317615592294</v>
+        <v>1.65666163151864</v>
       </c>
       <c r="D20">
-        <v>0.6968809799938412</v>
+        <v>1.273572036019198</v>
       </c>
       <c r="E20">
-        <v>3.12101708226277</v>
+        <v>5.155181843561474</v>
       </c>
       <c r="F20">
-        <v>1.436966414523825</v>
+        <v>3.07750719690033</v>
       </c>
       <c r="G20">
-        <v>8.921723865289602</v>
+        <v>13.5871641677358</v>
       </c>
       <c r="H20">
-        <v>1.646835679031199</v>
+        <v>2.866659170894517</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.5562571276083321</v>
+        <v>0.5056098357956678</v>
       </c>
       <c r="C21">
-        <v>0.7955819986619647</v>
+        <v>0.7791107368537397</v>
       </c>
       <c r="D21">
-        <v>1.170288906944176</v>
+        <v>0.7409852613403637</v>
       </c>
       <c r="E21">
-        <v>3.480995451094154</v>
+        <v>2.705302704876744</v>
       </c>
       <c r="F21">
-        <v>1.531514873988751</v>
+        <v>1.603800667138212</v>
       </c>
       <c r="G21">
-        <v>8.492699167963236</v>
+        <v>6.356806555322117</v>
       </c>
       <c r="H21">
-        <v>1.636778340600487</v>
+        <v>1.647230113889491</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.7462352930383374</v>
+        <v>0.7408142963958352</v>
       </c>
       <c r="C22">
-        <v>1.65666163151864</v>
+        <v>1.433023367008209</v>
       </c>
       <c r="D22">
-        <v>1.273572036019198</v>
+        <v>1.285874734634945</v>
       </c>
       <c r="E22">
-        <v>5.155181843561474</v>
+        <v>8.742999214148051</v>
       </c>
       <c r="F22">
-        <v>3.07750719690033</v>
+        <v>3.151787566346378</v>
       </c>
       <c r="G22">
-        <v>13.5871641677358</v>
+        <v>14.14388553185277</v>
       </c>
       <c r="H22">
-        <v>2.866659170894517</v>
+        <v>3.535281927434921</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.5056098357956678</v>
+        <v>0.9265238525926806</v>
       </c>
       <c r="C23">
-        <v>0.7791107368537397</v>
+        <v>1.428058197932021</v>
       </c>
       <c r="D23">
-        <v>0.7409852613403637</v>
+        <v>1.345978050608825</v>
       </c>
       <c r="E23">
-        <v>2.705302704876744</v>
+        <v>6.459591807765264</v>
       </c>
       <c r="F23">
-        <v>1.603800667138212</v>
+        <v>3.197160636588635</v>
       </c>
       <c r="G23">
-        <v>6.356806555322117</v>
+        <v>12.12509779823183</v>
       </c>
       <c r="H23">
-        <v>1.647230113889491</v>
+        <v>2.939069586080359</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.7408142963958352</v>
+        <v>0.3888934803547038</v>
       </c>
       <c r="C24">
-        <v>1.433023367008209</v>
+        <v>0.6830699510463327</v>
       </c>
       <c r="D24">
-        <v>1.285874734634945</v>
+        <v>0.5777168726737344</v>
       </c>
       <c r="E24">
-        <v>8.742999214148051</v>
+        <v>4.067199833803704</v>
       </c>
       <c r="F24">
-        <v>3.151787566346378</v>
+        <v>1.2419699212596</v>
       </c>
       <c r="G24">
-        <v>14.14388553185277</v>
+        <v>3.051361728639489</v>
       </c>
       <c r="H24">
-        <v>3.535281927434921</v>
+        <v>1.493059500401904</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.9265238525926806</v>
+        <v>0.1591132345516528</v>
       </c>
       <c r="C25">
-        <v>1.428058197932021</v>
+        <v>0.3056840175452415</v>
       </c>
       <c r="D25">
-        <v>1.345978050608825</v>
+        <v>0.3072280676068106</v>
       </c>
       <c r="E25">
-        <v>6.459591807765264</v>
+        <v>0.8776037173796566</v>
       </c>
       <c r="F25">
-        <v>3.197160636588635</v>
+        <v>1.045709497067084</v>
       </c>
       <c r="G25">
-        <v>12.12509779823183</v>
+        <v>2.147217083640279</v>
       </c>
       <c r="H25">
-        <v>2.939069586080359</v>
+        <v>1.202364277338848</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.3888934803547038</v>
+        <v>0.2522351301974524</v>
       </c>
       <c r="C26">
-        <v>0.6830699510463327</v>
+        <v>0.5719995697355416</v>
       </c>
       <c r="D26">
-        <v>0.5777168726737344</v>
+        <v>0.5460868456152026</v>
       </c>
       <c r="E26">
-        <v>4.067199833803704</v>
+        <v>1.865858537334224</v>
       </c>
       <c r="F26">
-        <v>1.2419699212596</v>
+        <v>1.426589842229326</v>
       </c>
       <c r="G26">
-        <v>3.051361728639489</v>
+        <v>4.311639729496164</v>
       </c>
       <c r="H26">
-        <v>1.493059500401904</v>
+        <v>1.69116262144969</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1591132345516528</v>
+        <v>0.5672107772195311</v>
       </c>
       <c r="C27">
-        <v>0.3056840175452415</v>
+        <v>1.213495392457944</v>
       </c>
       <c r="D27">
-        <v>0.3072280676068106</v>
+        <v>1.238253671026446</v>
       </c>
       <c r="E27">
-        <v>0.8776037173796566</v>
+        <v>5.265208830410519</v>
       </c>
       <c r="F27">
-        <v>1.045709497067084</v>
+        <v>3.373426280096523</v>
       </c>
       <c r="G27">
-        <v>2.147217083640279</v>
+        <v>7.642047484317572</v>
       </c>
       <c r="H27">
-        <v>1.202364277338848</v>
+        <v>3.461566210234391</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2522351301974524</v>
+        <v>0.2982643597219173</v>
       </c>
       <c r="C28">
-        <v>0.5719995697355416</v>
+        <v>0.5709807834018261</v>
       </c>
       <c r="D28">
-        <v>0.5460868456152026</v>
+        <v>0.5352368183947752</v>
       </c>
       <c r="E28">
-        <v>1.865858537334224</v>
+        <v>1.709638257749963</v>
       </c>
       <c r="F28">
-        <v>1.426589842229326</v>
+        <v>1.940614675347712</v>
       </c>
       <c r="G28">
-        <v>4.311639729496164</v>
+        <v>3.606083670441693</v>
       </c>
       <c r="H28">
-        <v>1.69116262144969</v>
+        <v>2.372009165663727</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.5672107772195311</v>
+        <v>0.2576718594623225</v>
       </c>
       <c r="C29">
-        <v>1.213495392457944</v>
+        <v>0.468991483801819</v>
       </c>
       <c r="D29">
-        <v>1.238253671026446</v>
+        <v>0.4894423827563754</v>
       </c>
       <c r="E29">
-        <v>5.265208830410519</v>
+        <v>1.221672804597647</v>
       </c>
       <c r="F29">
-        <v>3.373426280096523</v>
+        <v>2.007561984127638</v>
       </c>
       <c r="G29">
-        <v>7.642047484317572</v>
+        <v>3.622756636414462</v>
       </c>
       <c r="H29">
-        <v>3.461566210234391</v>
+        <v>2.251399417689372</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.2982643597219173</v>
+        <v>0.180932066407576</v>
       </c>
       <c r="C30">
-        <v>0.5709807834018261</v>
+        <v>0.4424826520132636</v>
       </c>
       <c r="D30">
-        <v>0.5352368183947752</v>
+        <v>0.4123692750012649</v>
       </c>
       <c r="E30">
-        <v>1.709638257749963</v>
+        <v>0.6957203195984556</v>
       </c>
       <c r="F30">
-        <v>1.940614675347712</v>
+        <v>2.426817119966163</v>
       </c>
       <c r="G30">
-        <v>3.606083670441693</v>
+        <v>4.013116080996457</v>
       </c>
       <c r="H30">
-        <v>2.372009165663727</v>
+        <v>2.74254355139338</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.2576718594623225</v>
+        <v>0.2888111753521044</v>
       </c>
       <c r="C31">
-        <v>0.468991483801819</v>
+        <v>0.7213871748681869</v>
       </c>
       <c r="D31">
-        <v>0.4894423827563754</v>
+        <v>0.6737682927173696</v>
       </c>
       <c r="E31">
-        <v>1.221672804597647</v>
+        <v>1.342616020455429</v>
       </c>
       <c r="F31">
-        <v>2.007561984127638</v>
+        <v>3.210670544064854</v>
       </c>
       <c r="G31">
-        <v>3.622756636414462</v>
+        <v>7.51903045186839</v>
       </c>
       <c r="H31">
-        <v>2.251399417689372</v>
+        <v>3.4762148920113</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.180932066407576</v>
+        <v>0.4191820137758068</v>
       </c>
       <c r="C32">
-        <v>0.4424826520132636</v>
+        <v>0.8738301793673511</v>
       </c>
       <c r="D32">
-        <v>0.4123692750012649</v>
+        <v>0.7462846836633134</v>
       </c>
       <c r="E32">
-        <v>0.6957203195984556</v>
+        <v>1.672364489298217</v>
       </c>
       <c r="F32">
-        <v>2.426817119966163</v>
+        <v>9.236836098476873</v>
       </c>
       <c r="G32">
-        <v>4.013116080996457</v>
+        <v>12.7087875553702</v>
       </c>
       <c r="H32">
-        <v>2.74254355139338</v>
+        <v>10.59204999186294</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.2888111753521044</v>
+        <v>0.2752628678746873</v>
       </c>
       <c r="C33">
-        <v>0.7213871748681869</v>
+        <v>0.7255921893221023</v>
       </c>
       <c r="D33">
-        <v>0.6737682927173696</v>
+        <v>0.6965619402923232</v>
       </c>
       <c r="E33">
-        <v>1.342616020455429</v>
+        <v>0.7781399233159282</v>
       </c>
       <c r="F33">
-        <v>3.210670544064854</v>
+        <v>3.33941931140018</v>
       </c>
       <c r="G33">
-        <v>7.51903045186839</v>
+        <v>4.915803348932455</v>
       </c>
       <c r="H33">
-        <v>3.4762148920113</v>
+        <v>3.826846698716774</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.4191820137758068</v>
+        <v>0.2734871878764318</v>
       </c>
       <c r="C34">
-        <v>0.8738301793673511</v>
+        <v>0.557785233733943</v>
       </c>
       <c r="D34">
-        <v>0.7462846836633134</v>
+        <v>0.520835163159333</v>
       </c>
       <c r="E34">
-        <v>1.672364489298217</v>
+        <v>1.89120470016833</v>
       </c>
       <c r="F34">
-        <v>9.236836098476873</v>
+        <v>1.284808534295396</v>
       </c>
       <c r="G34">
-        <v>12.7087875553702</v>
+        <v>3.420893312789568</v>
       </c>
       <c r="H34">
-        <v>10.59204999186294</v>
+        <v>1.377775214737496</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.2752628678746873</v>
+        <v>0.6791691667974508</v>
       </c>
       <c r="C35">
-        <v>0.7255921893221023</v>
+        <v>1.206463146505534</v>
       </c>
       <c r="D35">
-        <v>0.6965619402923232</v>
+        <v>1.367450004819749</v>
       </c>
       <c r="E35">
-        <v>0.7781399233159282</v>
+        <v>3.899976800360643</v>
       </c>
       <c r="F35">
-        <v>3.33941931140018</v>
+        <v>3.595909944268461</v>
       </c>
       <c r="G35">
-        <v>4.915803348932455</v>
+        <v>11.23949023342902</v>
       </c>
       <c r="H35">
-        <v>3.826846698716774</v>
+        <v>3.591781016260825</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.2734871878764318</v>
+        <v>0.7869406891701233</v>
       </c>
       <c r="C36">
-        <v>0.557785233733943</v>
+        <v>1.39188349521751</v>
       </c>
       <c r="D36">
-        <v>0.520835163159333</v>
+        <v>1.239717235287283</v>
       </c>
       <c r="E36">
-        <v>1.89120470016833</v>
+        <v>6.026573837027018</v>
       </c>
       <c r="F36">
-        <v>1.284808534295396</v>
+        <v>3.794434080449419</v>
       </c>
       <c r="G36">
-        <v>3.420893312789568</v>
+        <v>6.666633880502686</v>
       </c>
       <c r="H36">
-        <v>1.377775214737496</v>
+        <v>4.338272661552016</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.6791691667974508</v>
+        <v>0.3651528291635211</v>
       </c>
       <c r="C37">
-        <v>1.206463146505534</v>
+        <v>0.889726387016909</v>
       </c>
       <c r="D37">
-        <v>1.367450004819749</v>
+        <v>0.7821150264092059</v>
       </c>
       <c r="E37">
-        <v>3.899976800360643</v>
+        <v>2.635301477426762</v>
       </c>
       <c r="F37">
-        <v>3.595909944268461</v>
+        <v>1.639564971002233</v>
       </c>
       <c r="G37">
-        <v>11.23949023342902</v>
+        <v>5.582765464696582</v>
       </c>
       <c r="H37">
-        <v>3.591781016260825</v>
+        <v>1.738649722929303</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.7869406891701233</v>
+        <v>0.4826720275051342</v>
       </c>
       <c r="C38">
-        <v>1.39188349521751</v>
+        <v>0.9405328452498579</v>
       </c>
       <c r="D38">
-        <v>1.239717235287283</v>
+        <v>1.007807785740778</v>
       </c>
       <c r="E38">
-        <v>6.026573837027018</v>
+        <v>2.960075633493108</v>
       </c>
       <c r="F38">
-        <v>3.794434080449419</v>
+        <v>1.85410148680656</v>
       </c>
       <c r="G38">
-        <v>6.666633880502686</v>
+        <v>5.479345202635741</v>
       </c>
       <c r="H38">
-        <v>4.338272661552016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0.3651528291635211</v>
-      </c>
-      <c r="C39">
-        <v>0.889726387016909</v>
-      </c>
-      <c r="D39">
-        <v>0.7821150264092059</v>
-      </c>
-      <c r="E39">
-        <v>2.635301477426762</v>
-      </c>
-      <c r="F39">
-        <v>1.639564971002233</v>
-      </c>
-      <c r="G39">
-        <v>5.582765464696582</v>
-      </c>
-      <c r="H39">
-        <v>1.738649722929303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0.4826720275051342</v>
-      </c>
-      <c r="C40">
-        <v>0.9405328452498579</v>
-      </c>
-      <c r="D40">
-        <v>1.007807785740778</v>
-      </c>
-      <c r="E40">
-        <v>2.960075633493108</v>
-      </c>
-      <c r="F40">
-        <v>1.85410148680656</v>
-      </c>
-      <c r="G40">
-        <v>5.479345202635741</v>
-      </c>
-      <c r="H40">
         <v>2.041449254601692</v>
       </c>
     </row>
